--- a/1-data/1-research/cities.xlsx
+++ b/1-data/1-research/cities.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/Desktop/thesis/DUTTv2/1-data/1-research/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0AD2C3-1FE6-E64B-96DC-3C6DBE1D7F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="30860" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>City</t>
   </si>
@@ -67,60 +73,60 @@
     <t>Marseille</t>
   </si>
   <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
     <t>London</t>
   </si>
   <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Gothenburg</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Warsaw</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
@@ -302,13 +308,21 @@
   </si>
   <si>
     <t>COL</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>city_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,35 +387,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,10 +423,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -453,71 +464,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,7 +556,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -568,11 +579,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -581,13 +592,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,7 +608,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -606,7 +617,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -615,7 +626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -623,10 +634,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -691,22 +702,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,701 +730,1278 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>3027</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2135</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2851</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2531</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2749</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2518</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2046</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2228</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1874</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2973</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2682</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3244</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2493</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3216</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
         <v>1912</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4">
-        <v>1800</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1874</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2253</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="F21" s="4">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2051</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1701</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1551</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2927</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3255</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3193</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1656</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C31" s="3">
+        <v>2219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4">
-        <v>2167</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2180</v>
+      </c>
+      <c r="D33" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
-        <v>2181</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2973</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2682</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2493</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2051</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1701</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1551</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1656</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3269</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="3">
         <v>2180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3">
         <v>2205</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3">
         <v>2138</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="3">
         <v>2226</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3" t="s">
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>11640</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="3" t="s">
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="3">
+        <v>11640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>13043</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="3" t="s">
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="3">
+        <v>13043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>13023</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3" t="s">
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="3">
+        <v>13023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>12977</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="3" t="s">
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="3">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>13129</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3" t="s">
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="3">
+        <v>13129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>13121</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="3" t="s">
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="3">
+        <v>13121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>6845</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="3" t="s">
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>6955</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="3" t="s">
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>11139</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="3" t="s">
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>875</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="3" t="s">
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>1017</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="3" t="s">
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>362</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="3" t="s">
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>945</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="3" t="s">
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="3">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="3" t="s">
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>634</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="3" t="s">
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>315</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="3" t="s">
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>898</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="3" t="s">
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="3" t="s">
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="3" t="s">
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>906</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="3" t="s">
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>323</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="3" t="s">
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>154</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="3" t="s">
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>1105</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="3" t="s">
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>1303</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="3" t="s">
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>1361</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="3" t="s">
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>1420</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="3" t="s">
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>931</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="3" t="s">
+      <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
+        <v>621</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="3">
         <v>621</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>